--- a/output/20221115/tables/variance_decomposition/variance_decomposition.xlsx
+++ b/output/20221115/tables/variance_decomposition/variance_decomposition.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF5C920-470B-454B-8919-0F5429459260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="By variable" sheetId="1" r:id="rId1"/>
     <sheet name="By group" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="44">
   <si>
     <t>Outcome</t>
   </si>
@@ -211,11 +211,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,11 +538,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="13.5" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,709 +580,709 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.33795854449272156</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.3404504656791687</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.20105923712253571</v>
-      </c>
-      <c r="F2" s="1">
-        <v>9.7883054986596107E-3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.4320393800735474E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5.9452271088957787E-3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.946128323674202E-2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2.4746076669543982E-3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>4.8541910946369171E-2</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="C2" s="4">
+        <v>0.16566048562526703</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.16688196361064911</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.098555192351341248</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0047980300150811672</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.011921367608010769</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.0029142305720597506</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.014441328123211861</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.0012130028335377574</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.023794267326593399</v>
+      </c>
+      <c r="L2" s="4">
         <v>0.49017986655235291</v>
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.80501741170883179</v>
-      </c>
-      <c r="D3" s="1">
-        <v>9.6649736166000366E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6.1283845454454422E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.5881603360176086E-3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>7.822105661034584E-3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3.5058499779552221E-3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>9.5231747254729271E-3</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.3776334235444665E-3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1.2232043780386448E-2</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="C3" s="4">
+        <v>0.76838803291320801</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.092252045869827271</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.058495350182056427</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0024703957606106997</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.0074661895632743835</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.0033463290892541409</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0090898573398590088</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.001314949244260788</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.011675469577312469</v>
+      </c>
+      <c r="L3" s="4">
         <v>0.95449864864349365</v>
       </c>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.62144565582275391</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.17475420236587524</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.16708949208259583</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4.6130404807627201E-3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6.3038412481546402E-3</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3.4724462311714888E-3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4.9384408630430698E-3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.2360493652522564E-2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>5.0224447622895241E-3</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="C4" s="4">
+        <v>0.18335311114788055</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.051559984683990479</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.049298565834760666</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0013610448222607374</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.0018599035684019327</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.0010245206067338586</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0014570518396794796</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.0036468759644776583</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.0014818365452811122</v>
+      </c>
+      <c r="L4" s="4">
         <v>0.29504290223121643</v>
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.15178230404853821</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.42680421471595764</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.23399671912193298</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5.605291947722435E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.1005350388586521E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4.2717784643173218E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4.4442668557167053E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.5272283926606178E-3</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3.1670782715082169E-2</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="C5" s="4">
+        <v>0.022374870255589485</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.062917008996009827</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.034494441002607346</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.00826299749314785</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.0016223450656980276</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.0062972088344395161</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0065514813177287579</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.00022513518342748284</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.0046687237918376923</v>
+      </c>
+      <c r="L5" s="4">
         <v>0.14741420745849609</v>
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.91063129901885986</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.6836609244346619E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.9810479134321213E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4.7184010036289692E-3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>7.1243089623749256E-3</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.7367426306009293E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.5157276066020131E-3</v>
-      </c>
-      <c r="J6" s="1">
-        <v>4.4758131843991578E-4</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1.5481350710615516E-3</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="C6" s="4">
+        <v>0.50414896011352539</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.020393695682287216</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.01096759270876646</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0026122282724827528</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.0039442009292542934</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.0096150543540716171</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.00083914585411548615</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.00024779254454188049</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.00085708749247714877</v>
+      </c>
+      <c r="L6" s="4">
         <v>0.55362576246261597</v>
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.9346919059753418</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.5978539139032364E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.6700301319360733E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.5185646954923868E-3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>8.1581139238551259E-4</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2.6130049955099821E-3</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3.3223808277398348E-3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2.0928543526679277E-3</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.1266595683991909E-2</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="C7" s="4">
+        <v>0.54859566688537598</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.015247498638927937</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.0098018525168299675</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0014782128855586052</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.00047882151557132602</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.0015336424112319946</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0019499941263347864</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.0012283520773053169</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.0066126659512519836</v>
+      </c>
+      <c r="L7" s="4">
         <v>0.58692669868469238</v>
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.18896220624446869</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3.293885663151741E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6.368071585893631E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3.5087335854768753E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.16094490885734558</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.10867694020271301</v>
-      </c>
-      <c r="I8" s="1">
-        <v>6.2666803598403931E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.18030305206775665</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.16673919558525085</v>
-      </c>
-      <c r="L8" s="2">
-        <v>5.5485554039478302E-2</v>
+      <c r="C8" s="4">
+        <v>0.010484673082828522</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.001827630796469748</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0035333596169948578</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0019468403188511729</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.0089301168918609619</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.0060300002805888653</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0034771019127219915</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.010004214942455292</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.009251616895198822</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.055485554039478302</v>
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.94403678178787231</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5.9263086877763271E-3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>9.0998867526650429E-3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.7157994443550706E-3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6.7062019370496273E-3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3.8588172756135464E-3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2.6628519408404827E-3</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.8445983529090881E-2</v>
-      </c>
-      <c r="K9" s="1">
-        <v>7.5473198667168617E-3</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="C9" s="4">
+        <v>0.71178394556045532</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.0044683124870061874</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.006861124187707901</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.001293676788918674</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.0050563360564410686</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.0029094673227518797</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0020077344961464405</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.013907885178923607</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.0056905210949480534</v>
+      </c>
+      <c r="L9" s="4">
         <v>0.75397902727127075</v>
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.6333431601524353</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.20515000820159912</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.10372278839349747</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3.3355462364852428E-3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2.4251274764537811E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>5.3669665940105915E-3</v>
-      </c>
-      <c r="I10" s="1">
-        <v>6.3599296845495701E-3</v>
-      </c>
-      <c r="J10" s="1">
-        <v>4.5233508571982384E-3</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1.3947010971605778E-2</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="C10" s="4">
+        <v>0.19075565040111542</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.061788816004991531</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.031240105628967285</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0010046280222013593</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.0073042041622102261</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.0016164684202522039</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0019155374029651284</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.0013623811537399888</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.0042006787844002247</v>
+      </c>
+      <c r="L10" s="4">
         <v>0.30118846893310547</v>
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.62106013298034668</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.11143247783184052</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5.5119112133979797E-2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6.7950226366519928E-3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2.5168232619762421E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1.9698131829500198E-2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3.0731223523616791E-2</v>
-      </c>
-      <c r="J11" s="1">
-        <v>7.342817634344101E-2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5.6567475199699402E-2</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="C11" s="4">
+        <v>0.08790896087884903</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.01577288843691349</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.0078019234351813793</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.00096181238768622279</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.0035624781157821417</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.0027882035356014967</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.004349900409579277</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.010393508709967136</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.0080069340765476227</v>
+      </c>
+      <c r="L11" s="4">
         <v>0.14154660701751709</v>
       </c>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.95287555456161499</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.3906568288803101E-2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>8.6800595745444298E-3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2.3390105925500393E-3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6.8142912350594997E-3</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1.4897275250405073E-3</v>
-      </c>
-      <c r="I12" s="1">
-        <v>3.3340868540108204E-3</v>
-      </c>
-      <c r="J12" s="1">
-        <v>7.5327367521822453E-3</v>
-      </c>
-      <c r="K12" s="1">
-        <v>3.0279466882348061E-3</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="C12" s="4">
+        <v>0.72599989175796509</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.010595472529530525</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.0066133732907474041</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0017821019282564521</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.0051918369717895985</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.0011350295972079039</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.002540254732593894</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.0057392236776649952</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.0023070052266120911</v>
+      </c>
+      <c r="L12" s="4">
         <v>0.76190418004989624</v>
       </c>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.13240578770637512</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.50390207767486572</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.26187646389007568</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1.4736362732946873E-2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2.3364700376987457E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2.6827598921954632E-3</v>
-      </c>
-      <c r="I13" s="1">
-        <v>8.7017621845006943E-3</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3.6661453545093536E-2</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1.5668643638491631E-2</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="C13" s="4">
+        <v>0.025809368118643761</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.098223753273487091</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.051046606153249741</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0028725042939186096</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.0045543941669166088</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.00052294041961431503</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0016962020890787244</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.007146280724555254</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.0030542302411049604</v>
+      </c>
+      <c r="L13" s="4">
         <v>0.19492627680301666</v>
       </c>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.33538582921028137</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.28670436143875122</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.14920336008071899</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1.4875384047627449E-2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4.665771871805191E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>3.2396838068962097E-2</v>
-      </c>
-      <c r="I14" s="1">
-        <v>5.2697565406560898E-2</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.2603843584656715E-2</v>
-      </c>
-      <c r="K14" s="1">
-        <v>6.9475129246711731E-2</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="C14" s="4">
+        <v>0.097390376031398773</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.083254098892211914</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.043326131999492645</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0043195602484047413</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.013548612594604492</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.0094074932858347893</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.015302481129765511</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.0036599428858608007</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.020174402743577957</v>
+      </c>
+      <c r="L14" s="4">
         <v>0.29038310050964355</v>
       </c>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.84827101230621338</v>
-      </c>
-      <c r="D15" s="1">
-        <v>7.4843794107437134E-2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4.1439734399318695E-2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1.7259848536923528E-3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>7.559256162494421E-3</v>
-      </c>
-      <c r="H15" s="1">
-        <v>6.6524138674139977E-3</v>
-      </c>
-      <c r="I15" s="1">
-        <v>9.4968844205141068E-3</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.2852461077272892E-3</v>
-      </c>
-      <c r="K15" s="1">
-        <v>8.7256534025073051E-3</v>
-      </c>
-      <c r="L15" s="2">
+      <c r="C15" s="4">
+        <v>0.74949914216995239</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.066129051148891449</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.03661452978849411</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.0015250128926709294</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.0066790636628866196</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.0058778133243322372</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0083910766988992691</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.0011355932801961899</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.0077096465975046158</v>
+      </c>
+      <c r="L15" s="4">
         <v>0.88356095552444458</v>
       </c>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.30005568265914917</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.37584301829338074</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.25073903799057007</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.9297659397125244E-2</v>
-      </c>
-      <c r="G16" s="1">
-        <v>9.0087587013840675E-3</v>
-      </c>
-      <c r="H16" s="1">
-        <v>9.7983647137880325E-3</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2.0319309551268816E-3</v>
-      </c>
-      <c r="J16" s="1">
-        <v>3.03299929946661E-2</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2.8955675661563873E-3</v>
-      </c>
-      <c r="L16" s="2">
+      <c r="C16" s="4">
+        <v>0.06586100161075592</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.082496009767055511</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.055036198347806931</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.004235757514834404</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.0019773859530687332</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.0021507011260837317</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.0004460006020963192</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.0066573102958500385</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.00063556531677022576</v>
+      </c>
+      <c r="L16" s="4">
         <v>0.21949593722820282</v>
       </c>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>9.3696713447570801E-2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.33840721845626831</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.1650555431842804</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1.9623080268502235E-2</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3.8950487971305847E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>9.7692340612411499E-2</v>
-      </c>
-      <c r="I17" s="1">
-        <v>7.9870730638504028E-2</v>
-      </c>
-      <c r="J17" s="1">
-        <v>3.5117652267217636E-2</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.13158626854419708</v>
-      </c>
-      <c r="L17" s="2">
+      <c r="C17" s="4">
+        <v>0.014397848397493362</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.052001137286424637</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.02536316029727459</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0030153687112033367</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.0059853033162653446</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.015011833049356937</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.012273287400603294</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.0053963325917720795</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.02022012323141098</v>
+      </c>
+      <c r="L17" s="4">
         <v>0.15366439521312714</v>
       </c>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1">
-        <v>0.878895103931427</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6.0809504240751266E-2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3.1002180650830269E-2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1.1705931974574924E-3</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3.2456363551318645E-3</v>
-      </c>
-      <c r="H18" s="1">
-        <v>7.2149541229009628E-3</v>
-      </c>
-      <c r="I18" s="1">
-        <v>8.6049269884824753E-3</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1.2196922907605767E-3</v>
-      </c>
-      <c r="K18" s="1">
-        <v>7.8373774886131287E-3</v>
-      </c>
-      <c r="L18" s="2">
+      <c r="C18" s="4">
+        <v>0.67653471231460571</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.046808473765850067</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.023864112794399261</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.00090107100550085306</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.0024983477778732777</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.0055537540465593338</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.0066236937418580055</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.00093886529793962836</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.0060328678227961063</v>
+      </c>
+      <c r="L18" s="4">
         <v>0.76975589990615845</v>
       </c>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.40714120864868164</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.31095913052558899</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.15960508584976196</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.8195752054452896E-2</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1.8766213208436966E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1.4535675756633282E-2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>6.3263042829930782E-3</v>
-      </c>
-      <c r="J19" s="1">
-        <v>3.8546796422451735E-3</v>
-      </c>
-      <c r="K19" s="1">
-        <v>6.0615949332714081E-2</v>
-      </c>
-      <c r="L19" s="2">
+      <c r="C19" s="4">
+        <v>0.04363519698381424</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.033326920121908188</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.017105609178543091</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0019501224160194397</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.0020112611819058657</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.0015578551683574915</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.00067801907425746322</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.00041312372195534408</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.006496489979326725</v>
+      </c>
+      <c r="L19" s="4">
         <v>0.1071745976805687</v>
       </c>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" x14ac:dyDescent="0.2">
       <c r="O20" s="3"/>
     </row>
   </sheetData>
@@ -1294,17 +1294,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="13.5" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1330,493 +1330,493 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.32822519540786743</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.55205869674682617</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.9106208831071854E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3.0960876494646072E-2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4.9649037420749664E-2</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="C2" s="4">
+        <v>0.1608893871307373</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.27060803771018982</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.019169075414538383</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.015176397748291492</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.024336960166692734</v>
+      </c>
+      <c r="H2" s="4">
         <v>0.49017986655235291</v>
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.83037412166595459</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.13256031274795532</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.4271123334765434E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.0247351601719856E-2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.254703663289547E-2</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="C3" s="4">
+        <v>0.79259103536605835</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.12652865052223206</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.013621768914163113</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0097810830920934677</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.011976129375398159</v>
+      </c>
+      <c r="H3" s="4">
         <v>0.95449864864349365</v>
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.68217593431472778</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.28062278032302856</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.5014057047665119E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.7029475420713425E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5.1578260026872158E-3</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="C4" s="4">
+        <v>0.20127114653587341</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.082795754075050354</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.0044297906570136547</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0050244256854057312</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.0015217799227684736</v>
+      </c>
+      <c r="H4" s="4">
         <v>0.29504290223121643</v>
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.14953815937042236</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.64846950769424438</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.12125841528177261</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4.7710135579109192E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3.3023759722709656E-2</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="C5" s="4">
+        <v>0.022044051438570023</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.095593616366386414</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.017875213176012039</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0070331520400941372</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.0048681716434657574</v>
+      </c>
+      <c r="H5" s="4">
         <v>0.14741420745849609</v>
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.91260510683059692</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5.2380051463842392E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.1351715326309204E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.062551211565733E-3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.6005522338673472E-3</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="C6" s="4">
+        <v>0.50524169206619263</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.028998944908380508</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.017357118427753448</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0011418814538046718</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.00088610698003321886</v>
+      </c>
+      <c r="H6" s="4">
         <v>0.55362576246261597</v>
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.94104576110839844</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.5132545977830887E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6.7146020010113716E-3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5.858312826603651E-3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.1248745955526829E-2</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="C7" s="4">
+        <v>0.55232489109039307</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.020620228722691536</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.0039409794844686985</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0034384001046419144</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.0066021895036101341</v>
+      </c>
+      <c r="H7" s="4">
         <v>0.58692669868469238</v>
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.19061997532844543</v>
-      </c>
-      <c r="D8" s="1">
-        <v>9.4698987901210785E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.29784077405929565</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.24639609456062317</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.17044419050216675</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5.5485554039478302E-2</v>
+      <c r="C8" s="4">
+        <v>0.010576654225587845</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.0052544255740940571</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.016525860875844955</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.013671423308551311</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.0094571895897388458</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.055485554039478302</v>
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.94398742914199829</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.4880633912980556E-2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.2038430199027061E-2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.1764568984508514E-2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7.3289223946630955E-3</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="C9" s="4">
+        <v>0.71174675226211548</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.011219686828553677</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.0090767238289117813</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.01641002856194973</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.0055258539505302906</v>
+      </c>
+      <c r="H9" s="4">
         <v>0.75397902727127075</v>
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.62451517581939697</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.3158315122127533</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3.554069995880127E-2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>9.5651401206851006E-3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.4547483995556831E-2</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="C10" s="4">
+        <v>0.18809676170349121</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.095124803483486176</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.010704449377954006</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0028809099458158016</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.0043815341778099537</v>
+      </c>
+      <c r="H10" s="4">
         <v>0.30118846893310547</v>
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.60796421766281128</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.17830975353717804</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5.2005622535943985E-2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.105760358273983</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5.596005916595459E-2</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="C11" s="4">
+        <v>0.086055271327495575</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.025239139795303345</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.0073612192645668983</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.014970019459724426</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.0079209562391042709</v>
+      </c>
+      <c r="H11" s="4">
         <v>0.14154660701751709</v>
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.95497506856918335</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2.0086845383048058E-2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.0261303745210171E-2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.1708077974617481E-2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2.9687078204005957E-3</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="C12" s="4">
+        <v>0.72759950160980225</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.015304251573979855</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.0078181307762861252</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0089204329997301102</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.0022618710063397884</v>
+      </c>
+      <c r="H12" s="4">
         <v>0.76190418004989624</v>
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.13739562034606934</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.75858098268508911</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4.0650457143783569E-2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4.5801728963851929E-2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1.7571203410625458E-2</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="C13" s="4">
+        <v>0.026782017201185226</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.14786736667156219</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.0079238424077630043</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0089279608801007271</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.0034250891767442226</v>
+      </c>
+      <c r="H13" s="4">
         <v>0.19492627680301666</v>
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.32878735661506653</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.44497326016426086</v>
-      </c>
-      <c r="E14" s="1">
-        <v>9.3254163861274719E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>6.3653871417045593E-2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>6.9331392645835876E-2</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="C14" s="4">
+        <v>0.095474287867546082</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.12921270728111267</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.02707943320274353</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.018484009429812431</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.02013266459107399</v>
+      </c>
+      <c r="H14" s="4">
         <v>0.29038310050964355</v>
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.85846602916717529</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.1053149476647377</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.6896817833185196E-2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1.0547954589128494E-2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>8.7742665782570839E-3</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="C15" s="4">
+        <v>0.75850707292556763</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.093052171170711517</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.01492936909198761</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.009319760836660862</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.0077525991946458817</v>
+      </c>
+      <c r="H15" s="4">
         <v>0.88356095552444458</v>
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.33238705992698669</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.59334480762481689</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3.9572231471538544E-2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3.1303543597459793E-2</v>
-      </c>
-      <c r="G16" s="1">
-        <v>3.3924288582056761E-3</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="C16" s="4">
+        <v>0.072957605123519897</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.13023675978183746</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.0086859436705708504</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0068710003979504108</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.00074462429620325565</v>
+      </c>
+      <c r="H16" s="4">
         <v>0.21949593722820282</v>
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>9.0697795152664185E-2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.51008838415145874</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.15848594903945923</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.11122201383113861</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.12950587272644043</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="C17" s="4">
+        <v>0.013937021605670452</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.078382425010204315</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.024353647604584694</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.017090862616896629</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.01990043930709362</v>
+      </c>
+      <c r="H17" s="4">
         <v>0.15366439521312714</v>
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1">
-        <v>0.88159090280532837</v>
-      </c>
-      <c r="D18" s="1">
-        <v>8.8375970721244812E-2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.2528136372566223E-2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>9.7138332203030586E-3</v>
-      </c>
-      <c r="G18" s="1">
-        <v>7.7910968102514744E-3</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="C18" s="4">
+        <v>0.67860984802246094</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.06802792102098465</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.0096436068415641785</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.0074772806838154793</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.0059972428716719151</v>
+      </c>
+      <c r="H18" s="4">
         <v>0.76975589990615845</v>
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.41251504421234131</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.45662263035774231</v>
-      </c>
-      <c r="E19" s="1">
-        <v>5.7434666901826859E-2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>9.3607688322663307E-3</v>
-      </c>
-      <c r="G19" s="1">
-        <v>6.406693160533905E-2</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="C19" s="4">
+        <v>0.04421113058924675</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.048938345164060593</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.0061555369757115841</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.0010032366262748837</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.0068663475103676319</v>
+      </c>
+      <c r="H19" s="4">
         <v>0.1071745976805687</v>
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1825,7 +1825,7 @@
       <c r="H20" s="5"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
